--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -1,61 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\Languages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\Languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27FB5F-DA67-4F4E-88AC-01C7EA57985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">勾选锁定此行,锁定后将强制保留</t>
-        </d:r>
+          <t>勾选锁定此行,锁定后将强制保留</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">多语言Key</t>
-        </d:r>
+          <t>多语言Key</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
-        </d:r>
+          <t>多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>BRAKE</t>
   </si>
@@ -249,17 +251,114 @@
   </si>
   <si>
     <t>游戏胜利</t>
+  </si>
+  <si>
+    <t>MAIN_MENU.HISTORY_MODI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LOADING</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.GAME_START</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.MODIFY_RULE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装规则：\n1.。。。2.。。。3.。。。</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.SELECT_CONFIRM</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择改装的车辆</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEHICLE.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.CHOOSE_VEHICLE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装车库</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.RACING</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲模式(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞速赛事(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LEISURE_MODE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,11 +381,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,7 +505,47 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -431,590 +572,6 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1029,9 +586,9 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1056">
+            <xdr:cNvPr id="1056" name="A1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
@@ -1045,8 +602,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1059,7 +616,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1076,19 +633,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1115,9 +672,9 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1057">
+            <xdr:cNvPr id="1057" name="A2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
@@ -1131,8 +688,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1145,7 +702,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1162,19 +719,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1201,9 +758,9 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1058">
+            <xdr:cNvPr id="1058" name="A3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -1217,8 +774,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1231,7 +788,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1248,19 +805,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1287,9 +844,9 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1059">
+            <xdr:cNvPr id="1059" name="A4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -1303,8 +860,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1317,7 +874,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1334,19 +891,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1373,9 +930,9 @@
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1060">
+            <xdr:cNvPr id="1060" name="A5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -1389,8 +946,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1403,7 +960,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1420,19 +977,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1459,9 +1016,9 @@
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1061">
+            <xdr:cNvPr id="1061" name="A6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -1475,8 +1032,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1489,7 +1046,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1506,19 +1063,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1545,9 +1102,9 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1062">
+            <xdr:cNvPr id="1062" name="A7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -1561,8 +1118,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1575,7 +1132,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1592,19 +1149,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1631,9 +1188,9 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1063">
+            <xdr:cNvPr id="1063" name="A8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
@@ -1647,8 +1204,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1661,7 +1218,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1678,19 +1235,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1717,9 +1274,9 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1064">
+            <xdr:cNvPr id="1064" name="A9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
@@ -1733,8 +1290,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1747,7 +1304,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1764,19 +1321,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1803,9 +1360,9 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1065">
+            <xdr:cNvPr id="1065" name="A10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
@@ -1819,8 +1376,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1833,7 +1390,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1850,19 +1407,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1889,9 +1446,9 @@
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1066">
+            <xdr:cNvPr id="1066" name="A11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
@@ -1905,8 +1462,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1919,7 +1476,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -1936,19 +1493,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -1975,9 +1532,9 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1067">
+            <xdr:cNvPr id="1067" name="A12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
@@ -1991,8 +1548,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2005,7 +1562,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2022,19 +1579,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2061,9 +1618,9 @@
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1068">
+            <xdr:cNvPr id="1068" name="A13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
@@ -2077,8 +1634,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2091,7 +1648,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2108,19 +1665,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2147,9 +1704,9 @@
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1069">
+            <xdr:cNvPr id="1069" name="A14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
@@ -2163,8 +1720,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2177,7 +1734,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2194,19 +1751,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2233,9 +1790,9 @@
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1070">
+            <xdr:cNvPr id="1070" name="A15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
@@ -2249,8 +1806,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2263,7 +1820,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2280,19 +1837,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2319,9 +1876,9 @@
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1071">
+            <xdr:cNvPr id="1071" name="A16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
@@ -2335,8 +1892,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2349,7 +1906,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2366,19 +1923,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2405,9 +1962,9 @@
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1072">
+            <xdr:cNvPr id="1072" name="A17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
@@ -2421,8 +1978,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2435,7 +1992,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2452,19 +2009,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2491,9 +2048,9 @@
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1073">
+            <xdr:cNvPr id="1073" name="A18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
@@ -2507,8 +2064,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2521,7 +2078,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2538,19 +2095,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2577,9 +2134,9 @@
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1074">
+            <xdr:cNvPr id="1074" name="A19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
@@ -2593,8 +2150,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2607,7 +2164,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2624,19 +2181,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2663,9 +2220,9 @@
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1075">
+            <xdr:cNvPr id="1075" name="A20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
@@ -2679,8 +2236,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2693,7 +2250,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2710,19 +2267,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2749,9 +2306,9 @@
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1076">
+            <xdr:cNvPr id="1076" name="A21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
@@ -2765,8 +2322,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2779,7 +2336,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2796,19 +2353,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2835,9 +2392,9 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1077">
+            <xdr:cNvPr id="1077" name="A22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
@@ -2851,8 +2408,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2865,7 +2422,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2882,19 +2439,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -2921,9 +2478,9 @@
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1078">
+            <xdr:cNvPr id="1078" name="A23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
@@ -2937,8 +2494,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2951,7 +2508,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -2968,19 +2525,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3007,9 +2564,9 @@
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1079">
+            <xdr:cNvPr id="1079" name="A24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1079"/>
@@ -3023,8 +2580,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3037,7 +2594,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3054,19 +2611,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3093,9 +2650,9 @@
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1080">
+            <xdr:cNvPr id="1080" name="A25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1080"/>
@@ -3109,8 +2666,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3123,7 +2680,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3140,19 +2697,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3179,9 +2736,9 @@
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1081">
+            <xdr:cNvPr id="1081" name="A26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1081"/>
@@ -3195,8 +2752,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3209,7 +2766,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3226,19 +2783,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3265,9 +2822,9 @@
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1082">
+            <xdr:cNvPr id="1082" name="A27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1082"/>
@@ -3281,8 +2838,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3295,7 +2852,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3312,19 +2869,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3351,9 +2908,9 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A28" id="1083">
+            <xdr:cNvPr id="1083" name="A28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1083"/>
@@ -3367,8 +2924,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3381,7 +2938,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3398,19 +2955,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3437,9 +2994,9 @@
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A29" id="1084">
+            <xdr:cNvPr id="1084" name="A29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1084"/>
@@ -3453,8 +3010,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3467,7 +3024,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3484,19 +3041,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3523,9 +3080,9 @@
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A30" id="1085">
+            <xdr:cNvPr id="1085" name="A30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1085"/>
@@ -3539,8 +3096,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3553,7 +3110,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3570,19 +3127,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3609,9 +3166,9 @@
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A31" id="1086">
+            <xdr:cNvPr id="1086" name="A31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1086"/>
@@ -3625,8 +3182,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3639,7 +3196,7 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
@@ -3656,19 +3213,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
@@ -3677,6 +3234,851 @@
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="A31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3945,312 +4347,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
-    <col min="3" max="3" width="38.6902858189174" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId146" name="A1">
+            <control shapeId="1056" r:id="rId4" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4270,9 +4761,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId147" name="A2">
+            <control shapeId="1057" r:id="rId5" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4292,9 +4783,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId148" name="A3">
+            <control shapeId="1058" r:id="rId6" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4314,9 +4805,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId149" name="A4">
+            <control shapeId="1059" r:id="rId7" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4336,9 +4827,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId150" name="A5">
+            <control shapeId="1060" r:id="rId8" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4358,9 +4849,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId151" name="A6">
+            <control shapeId="1061" r:id="rId9" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4380,9 +4871,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId152" name="A7">
+            <control shapeId="1062" r:id="rId10" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4402,9 +4893,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId153" name="A8">
+            <control shapeId="1063" r:id="rId11" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4424,9 +4915,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId154" name="A9">
+            <control shapeId="1064" r:id="rId12" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4446,9 +4937,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId155" name="A10">
+            <control shapeId="1065" r:id="rId13" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4468,9 +4959,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId156" name="A11">
+            <control shapeId="1066" r:id="rId14" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4490,9 +4981,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId157" name="A12">
+            <control shapeId="1067" r:id="rId15" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4512,9 +5003,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId158" name="A13">
+            <control shapeId="1068" r:id="rId16" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4534,9 +5025,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId159" name="A14">
+            <control shapeId="1069" r:id="rId17" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4556,9 +5047,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId160" name="A15">
+            <control shapeId="1070" r:id="rId18" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4578,9 +5069,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId161" name="A16">
+            <control shapeId="1071" r:id="rId19" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4600,9 +5091,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId162" name="A17">
+            <control shapeId="1072" r:id="rId20" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4622,9 +5113,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId163" name="A18">
+            <control shapeId="1073" r:id="rId21" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4644,9 +5135,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId164" name="A19">
+            <control shapeId="1074" r:id="rId22" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4666,9 +5157,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId165" name="A20">
+            <control shapeId="1075" r:id="rId23" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4688,9 +5179,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId166" name="A21">
+            <control shapeId="1076" r:id="rId24" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4710,9 +5201,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId167" name="A22">
+            <control shapeId="1077" r:id="rId25" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4732,9 +5223,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId168" name="A23">
+            <control shapeId="1078" r:id="rId26" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4754,9 +5245,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId169" name="A24">
+            <control shapeId="1079" r:id="rId27" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4776,9 +5267,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId170" name="A25">
+            <control shapeId="1080" r:id="rId28" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4798,9 +5289,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId171" name="A26">
+            <control shapeId="1081" r:id="rId29" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4820,9 +5311,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId172" name="A27">
+            <control shapeId="1082" r:id="rId30" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4842,9 +5333,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId173" name="A28">
+            <control shapeId="1083" r:id="rId31" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4864,9 +5355,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId174" name="A29">
+            <control shapeId="1084" r:id="rId32" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4886,9 +5377,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId175" name="A30">
+            <control shapeId="1085" r:id="rId33" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4908,9 +5399,9 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId176" name="A31">
+            <control shapeId="1086" r:id="rId34" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4923,6 +5414,226 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId41" name="Check Box 72">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId43" name="Check Box 74">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId44" name="Check Box 75">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>BRAKE</t>
   </si>
@@ -297,7 +297,59 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>VEHICLE.MU_MA_REN_2024</t>
+    <t>MAIN_MENU.CHOOSE_VEHICLE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装车库</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.RACING</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲模式(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞速赛事(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LEISURE_MODE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_TYPE.0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY.CURRENCY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.PERFORMANCE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_NAME.MU_MA_REN_2024</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -305,31 +357,35 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.CHOOSE_VEHICLE</t>
+    <t>CAR_DESC.MU_MA_REN_2024</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>原装车库</t>
+    <t>牛皮的牧马人</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <t>陪耐力SUP轮胎</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.RACING</t>
+    <t>PART_NAME.BEI_NAI_LI</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>休闲模式(敬请期待)</t>
+    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>竞速赛事(敬请期待)</t>
+    <t>一键改装</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.LEISURE_MODE</t>
+    <t>CHOOSE_VEHICLE.OK_RESET</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键重置</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -549,6 +605,38 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -3759,13 +3847,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3841,14 +3929,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="A31" hidden="1">
@@ -3916,20 +4009,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -3997,6 +4095,431 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -4007,16 +4530,259 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="285750" cy="190500"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1099"/>
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4348,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +5445,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>72</v>
@@ -4688,28 +5454,28 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,10 +5490,73 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5561,13 +6390,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5641,6 +6470,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId45" name="Check Box 76">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId46" name="Check Box 77">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId47" name="Check Box 78">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId48" name="Check Box 79">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId49" name="Check Box 80">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId50" name="Check Box 81">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId51" name="Check Box 82">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId52" name="Check Box 83">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>BRAKE</t>
   </si>
@@ -333,59 +333,83 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MONEY.CURRENCY</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>元</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_NAME.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_DESC.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮的牧马人</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪耐力SUP轮胎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_NAME.BEI_NAI_LI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_RESET</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键重置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.COST</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件名称</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_TYPE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_NAME</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MG.PERFORMANCE</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>性能</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_NAME.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧马人2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_DESC.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛皮的牧马人</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陪耐力SUP轮胎</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART_NAME.BEI_NAI_LI</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键改装</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_RESET</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键重置</t>
+    <t>MONEY.CURRENCY</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -641,6 +665,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -4363,13 +4399,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4445,14 +4481,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -4520,20 +4561,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -4601,20 +4647,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -4682,20 +4733,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -4763,6 +4819,259 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -4773,16 +5082,16 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="285750" cy="190500"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1107"/>
+                  <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -5114,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,19 +5799,19 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,47 +5826,78 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6522,13 +6862,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6544,13 +6884,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6566,13 +6906,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6588,13 +6928,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6646,6 +6986,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId53" name="Check Box 84">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId54" name="Check Box 85">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId55" name="Check Box 86">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>BRAKE</t>
   </si>
@@ -251,165 +251,173 @@
   </si>
   <si>
     <t>游戏胜利</t>
+  </si>
+  <si>
+    <t>历史改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LOADING</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.GAME_START</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.MODIFY_RULE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装规则：\n1.。。。2.。。。3.。。。</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.SELECT_CONFIRM</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择改装的车辆</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.CHOOSE_VEHICLE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装车库</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.RACING</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲模式(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞速赛事(敬请期待)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.LEISURE_MODE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_TYPE.0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_NAME.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_DESC.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮的牧马人</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪耐力SUP轮胎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_NAME.BEI_NAI_LI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_RESET</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键重置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.COST</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件名称</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_TYPE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_NAME</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.PERFORMANCE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY.CURRENCY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>MAIN_MENU.HISTORY_MODI</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>历史改装</t>
+    <t>MH.HISTORY_MODIFY</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.LOADING</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载中</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.GAME_START</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始改装</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.MODIFY_RULE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>改装规则：\n1.。。。2.。。。3.。。。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.SELECT_CONFIRM</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认改装</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择改装的车辆</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.CHOOSE_VEHICLE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>原装车库</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.RACING</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>休闲模式(敬请期待)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞速赛事(敬请期待)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.LEISURE_MODE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮胎</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART_TYPE.0</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>元</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_NAME.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧马人2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_DESC.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛皮的牧马人</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陪耐力SUP轮胎</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART_NAME.BEI_NAI_LI</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键改装</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_RESET</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键重置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.COST</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件名称</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD.PART_TYPE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD.PART_NAME</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.PERFORMANCE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY.CURRENCY</t>
+    <t>历史改装车辆</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -677,6 +685,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -4997,14 +5009,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -5072,7 +5089,93 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5082,16 +5185,16 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="285750" cy="190500"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1110"/>
+                  <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -5426,7 +5529,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,186 +5821,191 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6592,7 +6700,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+            <control shapeId="1090" r:id="rId35" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6614,7 +6722,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+            <control shapeId="1091" r:id="rId36" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6636,7 +6744,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+            <control shapeId="1092" r:id="rId37" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6658,7 +6766,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+            <control shapeId="1093" r:id="rId38" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6680,7 +6788,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+            <control shapeId="1094" r:id="rId39" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6702,7 +6810,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+            <control shapeId="1095" r:id="rId40" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6746,7 +6854,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+            <control shapeId="1097" r:id="rId42" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7052,6 +7160,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId56" name="Check Box 87">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>BRAKE</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>游戏失败</t>
-  </si>
-  <si>
-    <t>GameOverUIForm.Back</t>
   </si>
   <si>
     <t>返回</t>
@@ -301,10 +298,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>MAIN_MENU.RACING</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -401,11 +394,107 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>MONEY.CURRENCY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH.HISTORY_MODIFY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史改装车辆</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.POWER</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.ACCELERATION</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.COMP_OF_MOD_DATA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装数据对比</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON.CLOSE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.TOTAL_PERFORMANCE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>总性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.BRAKE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.BEFORE_MOD</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装前</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.AFTER_MOD</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装后</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MG.PERFORMANCE</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MONEY.CURRENCY</t>
+    <t>数据详情</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH.DATA_DETAIL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS.MODIFY_SUCCEED</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装成功</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS.DESC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -413,11 +502,11 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>MH.HISTORY_MODIFY</t>
+    <t>恭喜改装成功，请在游戏首页 [{0}] 中查看越野车改装数据</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>历史改装车辆</t>
+    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +778,51 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1659,13 +1792,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1745,13 +1878,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1831,13 +1964,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1917,13 +2050,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2003,13 +2136,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2089,13 +2222,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2175,13 +2308,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2261,13 +2394,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2347,13 +2480,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2433,13 +2566,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2519,13 +2652,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2605,13 +2738,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2691,13 +2824,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2777,13 +2910,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2863,13 +2996,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2949,13 +3082,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3035,13 +3168,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3121,13 +3254,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3207,13 +3340,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3293,13 +3426,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3379,13 +3512,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3465,13 +3598,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3551,13 +3684,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3637,13 +3770,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3723,13 +3856,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3809,13 +3942,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3895,13 +4028,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3981,13 +4114,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4067,13 +4200,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4153,13 +4286,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4239,13 +4372,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4325,13 +4458,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4411,13 +4544,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4497,13 +4630,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4583,13 +4716,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4669,13 +4802,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4755,13 +4888,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4841,13 +4974,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4927,13 +5060,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5013,13 +5146,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5099,13 +5232,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5181,14 +5314,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
@@ -5256,7 +5394,953 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5526,17 +6610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,443 +6652,542 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>62</v>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6266,13 +7449,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6288,13 +7471,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6310,13 +7493,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6332,13 +7515,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6354,13 +7537,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6376,13 +7559,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6398,13 +7581,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6420,13 +7603,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6442,13 +7625,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6464,13 +7647,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6486,13 +7669,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6508,13 +7691,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6530,13 +7713,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6552,13 +7735,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6574,13 +7757,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6596,13 +7779,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6618,13 +7801,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6640,13 +7823,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6662,13 +7845,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6684,13 +7867,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6700,19 +7883,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId35" name="A31">
+            <control shapeId="1090" r:id="rId35" name="Check Box 66">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6722,19 +7905,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId36" name="A31">
+            <control shapeId="1091" r:id="rId36" name="Check Box 67">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6744,19 +7927,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId37" name="A31">
+            <control shapeId="1092" r:id="rId37" name="Check Box 68">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6766,19 +7949,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId38" name="A31">
+            <control shapeId="1093" r:id="rId38" name="Check Box 69">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6788,19 +7971,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId39" name="A31">
+            <control shapeId="1094" r:id="rId39" name="Check Box 70">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6810,19 +7993,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId40" name="A31">
+            <control shapeId="1095" r:id="rId40" name="Check Box 71">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6838,13 +8021,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6854,19 +8037,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId42" name="A31">
+            <control shapeId="1097" r:id="rId42" name="Check Box 73">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6882,13 +8065,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6904,13 +8087,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6926,13 +8109,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6948,13 +8131,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6970,13 +8153,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6992,13 +8175,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7014,13 +8197,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7036,13 +8219,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7058,13 +8241,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7080,13 +8263,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7102,13 +8285,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7124,13 +8307,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7146,13 +8329,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7168,13 +8351,255 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId57" name="Check Box 88">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId58" name="Check Box 89">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId59" name="Check Box 90">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId60" name="Check Box 91">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId61" name="Check Box 92">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId62" name="Check Box 93">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId63" name="Check Box 94">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId64" name="Check Box 95">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId65" name="Check Box 96">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId66" name="Check Box 97">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId67" name="Check Box 98">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -334,18 +334,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>牧马人2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>CAR_DESC.MU_MA_REN_2024</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>牛皮的牧马人</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>陪耐力SUP轮胎</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -507,6 +499,14 @@
   </si>
   <si>
     <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人2024\n2.0T铂金型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮的牧马人，自由的奔跑</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6612,8 +6612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,7 +6653,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6725,10 +6725,10 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>61</v>
@@ -6977,7 +6977,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>72</v>
@@ -6995,19 +6995,19 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7022,7 +7022,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>79</v>
@@ -7031,16 +7031,16 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>80</v>
@@ -7049,64 +7049,64 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,79 +7115,79 @@
         <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7883,7 +7883,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+            <control shapeId="1090" r:id="rId35" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7905,7 +7905,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+            <control shapeId="1091" r:id="rId36" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7927,7 +7927,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+            <control shapeId="1092" r:id="rId37" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7949,7 +7949,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+            <control shapeId="1093" r:id="rId38" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7971,7 +7971,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+            <control shapeId="1094" r:id="rId39" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7993,7 +7993,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+            <control shapeId="1095" r:id="rId40" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8037,7 +8037,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+            <control shapeId="1097" r:id="rId42" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>BRAKE</t>
   </si>
@@ -318,195 +318,211 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>元</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_NAME.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_DESC.MU_MA_REN_2024</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪耐力SUP轮胎</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_NAME.BEI_NAI_LI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键改装</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_VEHICLE.OK_RESET</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键重置</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.COST</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件名称</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_TYPE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.PART_NAME</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONEY.CURRENCY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH.HISTORY_MODIFY</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史改装车辆</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.POWER</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.ACCELERATION</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.COMP_OF_MOD_DATA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装数据对比</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON.CLOSE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.TOTAL_PERFORMANCE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>总性能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.BRAKE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.BEFORE_MOD</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装前</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC.AFTER_MOD</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装后</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG.PERFORMANCE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据详情</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH.DATA_DETAIL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS.MODIFY_SUCCEED</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装成功</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS.DESC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.HISTORY_MODI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜改装成功，请在游戏首页 [{0}] 中查看越野车改装数据</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧马人2024\n2.0T铂金型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮的牧马人，自由的奔跑</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_NAME.CHE_KE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛车车壳(你老婆)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PART_TYPE.0</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>元</t>
+    <t>PART_TYPE.1</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>性能</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_NAME.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_DESC.MU_MA_REN_2024</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陪耐力SUP轮胎</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART_NAME.BEI_NAI_LI</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_CHANGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键改装</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOOSE_VEHICLE.OK_RESET</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键重置</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.COST</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件名称</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD.PART_TYPE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD.PART_NAME</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONEY.CURRENCY</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MH.HISTORY_MODIFY</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史改装车辆</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.POWER</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>制动</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速度</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.ACCELERATION</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.COMP_OF_MOD_DATA</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>改装数据对比</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON.CLOSE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC.TOTAL_PERFORMANCE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>总性能</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.BRAKE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC.BEFORE_MOD</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>改装前</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC.AFTER_MOD</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>改装后</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG.PERFORMANCE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据详情</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MH.DATA_DETAIL</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS.MODIFY_SUCCEED</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>改装成功</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS.DESC</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameOverUIForm.Back</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.HISTORY_MODI</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜改装成功，请在游戏首页 [{0}] 中查看越野车改装数据</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_MENU.ORIGINAL_CAR_GARAGE</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧马人2024\n2.0T铂金型</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛皮的牧马人，自由的奔跑</t>
+    <t>车壳</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -826,6 +842,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -4458,13 +4486,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4544,13 +4572,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4630,13 +4658,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4716,13 +4744,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4802,13 +4830,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5060,13 +5088,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5146,13 +5174,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5232,13 +5260,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5318,13 +5346,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5404,13 +5432,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5490,13 +5518,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5576,13 +5604,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5662,13 +5690,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5834,13 +5862,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5920,13 +5948,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6006,13 +6034,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6092,13 +6120,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6178,13 +6206,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6264,13 +6292,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6341,6 +6369,249 @@
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6610,10 +6881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,7 +6924,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6725,10 +6996,10 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,7 +7185,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>61</v>
@@ -6977,7 +7248,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>72</v>
@@ -6995,25 +7266,25 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>77</v>
@@ -7022,55 +7293,55 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7079,115 +7350,133 @@
         <v>102</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8131,13 +8420,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8153,13 +8442,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8175,13 +8464,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8197,13 +8486,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8219,13 +8508,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8285,13 +8574,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8307,13 +8596,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>58</xdr:row>
+                    <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8329,13 +8618,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>58</xdr:row>
+                    <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8351,13 +8640,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8373,13 +8662,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8395,13 +8684,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8417,13 +8706,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8439,13 +8728,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8483,13 +8772,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8505,13 +8794,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>52</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8527,13 +8816,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>52</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8549,13 +8838,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8571,13 +8860,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>62</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8593,13 +8882,79 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>62</xdr:row>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>63</xdr:row>
+                    <xdr:row>65</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1123" r:id="rId68" name="Check Box 99">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1124" r:id="rId69" name="Check Box 100">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1125" r:id="rId70" name="Check Box 101">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -510,10 +510,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>痛车车壳(你老婆)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>PART_TYPE.0</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -523,6 +519,10 @@
   </si>
   <si>
     <t>车壳</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛车车壳</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -6374,14 +6374,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
@@ -6449,20 +6454,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
@@ -6530,20 +6540,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="285750" cy="190500"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
@@ -6611,7 +6626,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6884,7 +6899,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7299,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>77</v>
@@ -7293,10 +7308,10 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7422,7 +7437,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
